--- a/k-dic-core/src/main/resources/k-dic-default/k-dic-complete-default.xlsx
+++ b/k-dic-core/src/main/resources/k-dic-default/k-dic-complete-default.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bijian/workspace_gitee/k-dic/k-dic-core/src/main/resources/k-dic-default/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C5B078-4CAC-BD47-A970-23296C968007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DF84B0C-6B62-DF4B-BB72-47A78E949E58}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
-  <si>
-    <t>主词</t>
-  </si>
-  <si>
-    <t>辅助词</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>分类</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -107,6 +101,10 @@
   </si>
   <si>
     <t>输入“波多野结衣”和 “AV” 才会认为命中了敏感词</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>补全词</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,105 +507,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.83203125" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18">
+    <row r="1" spans="1:6" ht="18">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="D5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6">
+      <c r="D7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="F3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="F5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H5" t="s">
+      <c r="F7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -618,26 +608,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EECCCFC8-D579-4341-9B24-181D1A8644B7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -648,28 +627,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE0F59-2A61-C546-B9BC-FA9292AD936D}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="47.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
